--- a/01.MODELO PERSEPOLIS/02.Ejecucion/04.Frente Comercial/PERSEPOLIS MATERIAL_en proceso de ajustes/Definición de Roles CGLU.xlsx
+++ b/01.MODELO PERSEPOLIS/02.Ejecucion/04.Frente Comercial/PERSEPOLIS MATERIAL_en proceso de ajustes/Definición de Roles CGLU.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>Nombre</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Especialistas</t>
   </si>
   <si>
-    <t>Juan David Alzate</t>
-  </si>
-  <si>
     <t>Luis Leonardo Rodriguez</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>Logistica y Apoyo</t>
-  </si>
-  <si>
-    <t>Relacionamiento/Ventas</t>
   </si>
   <si>
     <t>Porcentajes</t>
@@ -164,9 +158,6 @@
     <t xml:space="preserve">María Jose Besson </t>
   </si>
   <si>
-    <t>Jairo Angarita</t>
-  </si>
-  <si>
     <t>Ponencia (Panel)</t>
   </si>
   <si>
@@ -180,13 +171,43 @@
   </si>
   <si>
     <t>MallMarket (Mercadeo / Redes Sociales)</t>
+  </si>
+  <si>
+    <t>Juan David Alvarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacionamiento y Mercadeo </t>
+  </si>
+  <si>
+    <t>Relacionamiento y Mercadeo /Ventas</t>
+  </si>
+  <si>
+    <t>Captura y Relacionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Sanchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles especificos </t>
+  </si>
+  <si>
+    <t>Financiera</t>
+  </si>
+  <si>
+    <t>TIC</t>
+  </si>
+  <si>
+    <t>Modelo persépolis</t>
+  </si>
+  <si>
+    <t>Veronica Rincón</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +251,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +324,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -386,12 +418,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -418,16 +462,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -439,64 +525,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="15">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -840,7 +899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -848,28 +907,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D40"/>
+  <dimension ref="A2:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.1640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="79.5" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7"/>
@@ -890,371 +949,403 @@
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="18" t="s">
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="32">
+      <c r="A27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="18" t="s">
+      <c r="B31" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="25" customHeight="1">
+      <c r="A35" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" ht="25" customHeight="1">
+      <c r="A36" s="30"/>
+      <c r="B36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:4" ht="25" customHeight="1">
+      <c r="A37" s="30"/>
+      <c r="B37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="1:4" ht="25" customHeight="1">
+      <c r="A38" s="30"/>
+      <c r="B38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="33"/>
+    </row>
+    <row r="39" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="20" t="s">
+      <c r="B39" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" ht="32">
+      <c r="A40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="25" t="s">
+      <c r="B40" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="56.25" customHeight="1">
+      <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="32">
-      <c r="A25" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8" t="s">
+      <c r="B41" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" ht="96">
+      <c r="A42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="25" customHeight="1">
-      <c r="A33" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="B42" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" ht="25" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="25" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" ht="25" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="36.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" ht="32">
-      <c r="A38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="6" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="6" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="56.25" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" ht="96">
-      <c r="A40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
